--- a/data/trans_orig/P14C08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AE20B5D-1AAA-4C62-B98A-4D8A183ED4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47DEF8D-A055-4CAD-BE58-32258001EED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C36EBE7-6C78-4B9F-9CA1-95E4AEE13347}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B29EA25-6E42-4045-B6E5-26F3E4E4B127}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>67,27%</t>
   </si>
   <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>86,1%</t>
@@ -92,10 +92,10 @@
     <t>75,22%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,10 +104,10 @@
     <t>26,69%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
   </si>
   <si>
     <t>8,92%</t>
@@ -122,10 +122,10 @@
     <t>19,19%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,7 +134,7 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>20,75%</t>
+    <t>18,19%</t>
   </si>
   <si>
     <t>4,97%</t>
@@ -146,10 +146,10 @@
     <t>5,59%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,61 +161,61 @@
     <t>67,7%</t>
   </si>
   <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>67,72%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>67,71%</t>
   </si>
   <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
   </si>
   <si>
     <t>32,28%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>29,33%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>22,66%</t>
+    <t>23,63%</t>
   </si>
   <si>
     <t>0%</t>
@@ -227,7 +227,7 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>14,27%</t>
+    <t>14,71%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -266,79 +266,79 @@
     <t>69,29%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>72,71%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>16,53%</t>
+    <t>17,2%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DDB65A-738F-47F1-B189-5BE1D21E9B66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E86125A-862E-4BDA-AFCC-8137854E23A9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C08-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47DEF8D-A055-4CAD-BE58-32258001EED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D69D9C4-E019-4F30-92D9-633317DA434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B29EA25-6E42-4045-B6E5-26F3E4E4B127}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1926B8C8-0376-4DD4-9949-75801F15539D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
-    <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>67,27%</t>
   </si>
   <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>86,1%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>75,22%</t>
   </si>
   <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,10 +104,10 @@
     <t>26,69%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
   </si>
   <si>
     <t>8,92%</t>
@@ -116,16 +116,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,81%</t>
+    <t>28,8%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,22 +134,22 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>18,19%</t>
+    <t>18,5%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>25,09%</t>
+    <t>24,76%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,61 +161,61 @@
     <t>67,7%</t>
   </si>
   <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>67,72%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>67,71%</t>
   </si>
   <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
   </si>
   <si>
     <t>32,28%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>29,33%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>23,63%</t>
+    <t>20,91%</t>
   </si>
   <si>
     <t>0%</t>
@@ -227,7 +227,7 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>14,71%</t>
+    <t>14,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -245,7 +245,7 @@
     <t>85,28%</t>
   </si>
   <si>
-    <t>32,47%</t>
+    <t>45,73%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -260,85 +260,85 @@
     <t>14,72%</t>
   </si>
   <si>
-    <t>67,53%</t>
+    <t>54,27%</t>
   </si>
   <si>
     <t>69,29%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>72,71%</t>
   </si>
   <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>17,2%</t>
+    <t>17,28%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E86125A-862E-4BDA-AFCC-8137854E23A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052ECF3E-7145-421C-A15E-0D39B2AD5B11}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
